--- a/data/Map003.xlsx
+++ b/data/Map003.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>シィナ</t>
+  </si>
+  <si>
+    <t>Sina</t>
   </si>
   <si>
     <t>アーコ</t>
@@ -494,7 +497,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,184 +505,187 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map003.xlsx
+++ b/data/Map003.xlsx
@@ -20,7 +20,7 @@
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>アーコ</t>

--- a/data/Map003.xlsx
+++ b/data/Map003.xlsx
@@ -497,7 +497,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,185 +505,188 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>36</v>
       </c>

--- a/data/Map003.xlsx
+++ b/data/Map003.xlsx
@@ -497,7 +497,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,189 +505,291 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>

--- a/data/Map003.xlsx
+++ b/data/Map003.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77287E97-97C7-4F79-B192-625AFD937BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="68">
   <si>
     <t>シィナ</t>
   </si>
@@ -159,19 +165,140 @@
   </si>
   <si>
     <t>かりかり</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Meoow-?
+(Dumpster diving again, Shina?)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaaa...
+(Ugh, who invited this loser.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Nyan. Meow-.
+(You know you'll get a stomachache if you eat that.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Meoow. Nyaaa...
+(Shut it. It's not as bad as you think.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Nyaaaaa. Nya.
+(If you'd just let a human pamper you, \nyou'd have more food than you could eat.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nya? Nyaaaaan.
+(Huh? I'd rather eat a hairball than do that.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Nyaa, nyaa.
+(Hairballs are for throwing up, not eating.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nnnnnya.
+(This is none of your business. Leave me alone.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Father&gt;Ako? Dinner time!
+Time to come home! Ako?</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Meooow♥
+(Coming♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaa...
+(Where's your pride as a cat?
+Being seduced by a human...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Nya, nyaaan.
+(Pride doesn't keep your stomach full.
+I've got to be smart.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Meow.
+(Here. I'm sharing the love.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaaa!!
+(Hey! I don't need your scraps! Beat it!)</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Nyan nyan.
+(Fine, fine. I'll see you later, Shinyan.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nnyaa...
+(Geez...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaaa.
+(I just happened to be sitting here.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Munch... Munch...
+(Does Ako really eat like this every day?)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Munch... Munch...
+(...)</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Oh? This cat...
+What an unusual pattern it has.</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;What a cutie.
+Psspsspss. Come here.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;...
+(Gotta be smart... Huh.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaan♥
+(Gimme some fooood♥)</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Good kitty.</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Aha!!
+Gotcha!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nya!!!
+(What the hell!! Let go, you bastard!!)</t>
+  </si>
+  <si>
+    <t>\n&lt;？？？&gt;Now now, don't struggle!
+Master loves rare and unusual things. He'll be so happy.
+I'm gonna get a huge raise!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaa!!! Nyaaa!!!
+(Stop it!! Dammit!!)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Meooooooww!!
+(Let me gooooooo!!)</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nnnya nya...
+(This is tasty.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Nyaa.
+(You're eating, aren't you?)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -182,28 +309,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -493,19 +632,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.140625" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -521,7 +662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -529,7 +670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -537,255 +678,348 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -794,17 +1028,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>